--- a/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
   <si>
     <t>Serie</t>
   </si>
@@ -1199,6 +1199,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P380"/>
+  <dimension ref="A1:P381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13811,6 +13814,9 @@
       <c r="M377">
         <v>9.300000000000001</v>
       </c>
+      <c r="N377">
+        <v>6.65</v>
+      </c>
       <c r="O377">
         <v>6.67</v>
       </c>
@@ -13925,12 +13931,18 @@
       <c r="E380">
         <v>-0.35</v>
       </c>
+      <c r="F380">
+        <v>2.01</v>
+      </c>
       <c r="G380">
         <v>3.18</v>
       </c>
       <c r="H380">
         <v>1.63</v>
       </c>
+      <c r="I380">
+        <v>1.7</v>
+      </c>
       <c r="J380">
         <v>7.12</v>
       </c>
@@ -13940,8 +13952,64 @@
       <c r="L380">
         <v>6.22</v>
       </c>
+      <c r="M380">
+        <v>9.279999999999999</v>
+      </c>
       <c r="O380">
         <v>6.92</v>
+      </c>
+      <c r="P380">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16">
+      <c r="A381" t="s">
+        <v>395</v>
+      </c>
+      <c r="B381">
+        <v>1.28</v>
+      </c>
+      <c r="C381">
+        <v>0.57</v>
+      </c>
+      <c r="D381">
+        <v>0.02</v>
+      </c>
+      <c r="E381">
+        <v>-0.46</v>
+      </c>
+      <c r="F381">
+        <v>1.92</v>
+      </c>
+      <c r="G381">
+        <v>3.21</v>
+      </c>
+      <c r="H381">
+        <v>1.74</v>
+      </c>
+      <c r="I381">
+        <v>1.75</v>
+      </c>
+      <c r="J381">
+        <v>6.95</v>
+      </c>
+      <c r="K381">
+        <v>1.53</v>
+      </c>
+      <c r="L381">
+        <v>6.14</v>
+      </c>
+      <c r="M381">
+        <v>10.29</v>
+      </c>
+      <c r="N381">
+        <v>7.33</v>
+      </c>
+      <c r="O381">
+        <v>6.99</v>
+      </c>
+      <c r="P381">
+        <v>6.36</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t>Serie</t>
   </si>
@@ -1202,6 +1202,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P381"/>
+  <dimension ref="A1:P382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14012,6 +14015,56 @@
         <v>6.36</v>
       </c>
     </row>
+    <row r="382" spans="1:16">
+      <c r="A382" t="s">
+        <v>396</v>
+      </c>
+      <c r="B382">
+        <v>1.37</v>
+      </c>
+      <c r="C382">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D382">
+        <v>0.05</v>
+      </c>
+      <c r="E382">
+        <v>-0.3</v>
+      </c>
+      <c r="F382">
+        <v>2.07</v>
+      </c>
+      <c r="G382">
+        <v>3.3</v>
+      </c>
+      <c r="H382">
+        <v>2.01</v>
+      </c>
+      <c r="I382">
+        <v>1.91</v>
+      </c>
+      <c r="J382">
+        <v>7.11</v>
+      </c>
+      <c r="K382">
+        <v>1.73</v>
+      </c>
+      <c r="L382">
+        <v>6.35</v>
+      </c>
+      <c r="M382">
+        <v>10.95</v>
+      </c>
+      <c r="N382">
+        <v>7.49</v>
+      </c>
+      <c r="O382">
+        <v>7.09</v>
+      </c>
+      <c r="P382">
+        <v>6.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>Serie</t>
   </si>
@@ -1205,6 +1205,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P382"/>
+  <dimension ref="A1:P383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14065,6 +14068,50 @@
         <v>6.35</v>
       </c>
     </row>
+    <row r="383" spans="1:16">
+      <c r="A383" t="s">
+        <v>397</v>
+      </c>
+      <c r="B383">
+        <v>1.58</v>
+      </c>
+      <c r="C383">
+        <v>1.1</v>
+      </c>
+      <c r="D383">
+        <v>0.09</v>
+      </c>
+      <c r="E383">
+        <v>-0.15</v>
+      </c>
+      <c r="F383">
+        <v>2.44</v>
+      </c>
+      <c r="G383">
+        <v>3.56</v>
+      </c>
+      <c r="H383">
+        <v>2.6</v>
+      </c>
+      <c r="I383">
+        <v>2.34</v>
+      </c>
+      <c r="J383">
+        <v>7.68</v>
+      </c>
+      <c r="K383">
+        <v>1.96</v>
+      </c>
+      <c r="L383">
+        <v>6.94</v>
+      </c>
+      <c r="M383">
+        <v>11.48</v>
+      </c>
+      <c r="O383">
+        <v>7.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Mensual.xlsx
@@ -14111,6 +14111,9 @@
       <c r="O383">
         <v>7.49</v>
       </c>
+      <c r="P383">
+        <v>5.96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
